--- a/2025/11/2025-11-14/14_fixtures.xlsx
+++ b/2025/11/2025-11-14/14_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,482 +888,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NK Brinje Grosuplje  - ND Bilje: 17:00</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NK Brinje Grosuplje</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Finland  - Malta: 16:00</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gibraltar - Montenegro : 18:45</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan University - Briton Ferry Llansawel : 18:45</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nicaragua - Honduras : 01:00</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>FK Trayal Kruševac - FK Zemun : 22:00</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>FK Zemun</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Trethomas Bluebirds  - Baglan Dragons: 18:30</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Trethomas Bluebirds</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cambrian United  - Ammanford AFC: 18:45</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Cambrian United</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Guatemala - Panama : 01:00</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Sanat Naft FC  - Fard Alborz: 12:30</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Sanat Naft FC</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Al-Sailiya SC  - Al-Rayyan SC: 15:30</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Al-Sailiya SC</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Buckley Town  - Y Rhyl 1879: 18:45</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Buckley Town</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Graficar Belgrad - FK Jedinstvo Ub : 22:00</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>FK Jedinstvo Ub</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Japan - Ghana : 09:20</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Qatar SC  - Al-Shahania SC: 13:30</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Qatar SC</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Niroye Zamini FC  - Naft va Gaz Gachsaran: 10:30</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Niroye Zamini FC</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fri Nov 14</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Real Valladolid CF  - UD Las Palmas: 18:30</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Real Valladolid CF</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
